--- a/SideProject/MBTI/mbti.xlsx
+++ b/SideProject/MBTI/mbti.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\TIL\SideProject\MBTI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567F37EC-C19D-4591-8610-583DFC6E76C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B9CE9C-F7DF-40E4-92C3-1A8E29F39D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6150" yWindow="3435" windowWidth="21600" windowHeight="11385" xr2:uid="{C1F14209-E65A-4212-A1F8-FF0E8B385616}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" xr2:uid="{C1F14209-E65A-4212-A1F8-FF0E8B385616}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -129,15 +129,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dict = {'ENFP':0 …}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dict[str] += 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lambda로 제일 큰놈, 작은놈</t>
+    <t>db의 cnt += 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전부 다 불러와서 max, min</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cnt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -685,7 +685,7 @@
   <dimension ref="E5:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -845,19 +845,19 @@
         <v>22</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
       <c r="K18" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="5:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="K19" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
